--- a/MyMathSheets.HealthChecks/classview.xlsx
+++ b/MyMathSheets.HealthChecks/classview.xlsx
@@ -14,25 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>實現</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>依賴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>關聯</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>。。。。。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>聚合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -120,15 +104,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,13 +135,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>504574</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>85393</xdr:rowOff>
@@ -172,7 +153,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8138272" y="1680882"/>
+          <a:off x="6087596" y="1680882"/>
           <a:ext cx="3986802" cy="2606717"/>
           <a:chOff x="2743200" y="523875"/>
           <a:chExt cx="4000249" cy="2657143"/>
@@ -262,13 +243,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>657002</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66526</xdr:rowOff>
@@ -280,7 +261,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3343835" y="498101"/>
+          <a:off x="1293159" y="498101"/>
           <a:ext cx="4832314" cy="3098278"/>
           <a:chOff x="647700" y="2428875"/>
           <a:chExt cx="4848002" cy="3162151"/>
@@ -428,13 +409,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>114020</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>123465</xdr:rowOff>
@@ -446,8 +427,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3903569" y="3691778"/>
-          <a:ext cx="4413157" cy="2819040"/>
+          <a:off x="1852893" y="3691778"/>
+          <a:ext cx="4413156" cy="2819040"/>
           <a:chOff x="8105775" y="3962400"/>
           <a:chExt cx="4428845" cy="2876190"/>
         </a:xfrm>
@@ -537,13 +518,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -586,13 +567,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>447677</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -635,14 +616,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47431</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47430</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123661</xdr:rowOff>
     </xdr:to>
@@ -673,111 +654,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2393576" y="5483600"/>
-          <a:ext cx="732865" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="dash"/>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2412626" y="5791200"/>
-          <a:ext cx="736227" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="dash"/>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>571249</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114079</xdr:rowOff>
@@ -789,7 +672,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8698006" y="4259356"/>
+          <a:off x="6647329" y="4259356"/>
           <a:ext cx="4860861" cy="1737811"/>
           <a:chOff x="11658600" y="4114800"/>
           <a:chExt cx="4876549" cy="1771429"/>
@@ -880,62 +763,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104778</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2412627" y="6155954"/>
-          <a:ext cx="725020" cy="7281"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -977,14 +811,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>551770</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>551771</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>9418</xdr:rowOff>
     </xdr:to>
@@ -1015,13 +849,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>104554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>118937</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1066,13 +900,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>118937</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>104554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1117,13 +951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>118937</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>104554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1147,54 +981,6 @@
           <a:prstDash val="dash"/>
           <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>384924</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100851</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2435600" y="6488204"/>
-          <a:ext cx="668429" cy="11208"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:headEnd type="diamond"/>
-          <a:tailEnd type="stealth"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1530,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L46"/>
+  <dimension ref="C3:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1541,47 +1327,24 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
+    <row r="3" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D33" s="1" t="s">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F46" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
